--- a/backend/sekolah/templates/template_siswa_tabel_D4DA6B98FCFD71C58F5A_2024.xlsx
+++ b/backend/sekolah/templates/template_siswa_tabel_D4DA6B98FCFD71C58F5A_2024.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Tingkat Pendidikan</t>
   </si>
@@ -23,160 +23,166 @@
     <t>10</t>
   </si>
   <si>
+    <t>NIS</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>NISN</t>
+  </si>
+  <si>
+    <t>99887766</t>
+  </si>
+  <si>
+    <t>Nama</t>
+  </si>
+  <si>
+    <t>Ahmad</t>
+  </si>
+  <si>
+    <t>JK</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Tempat Lahir</t>
+  </si>
+  <si>
+    <t>Jakarta</t>
+  </si>
+  <si>
+    <t>Tanggal Lahir</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Agama</t>
+  </si>
+  <si>
+    <t>Islam</t>
+  </si>
+  <si>
+    <t>Alamat</t>
+  </si>
+  <si>
+    <t>Jl. Merdeka 10</t>
+  </si>
+  <si>
+    <t>Telepon Siswa</t>
+  </si>
+  <si>
+    <t>08123456789</t>
+  </si>
+  <si>
+    <t>Diterima Tanggal</t>
+  </si>
+  <si>
+    <t>01/01/2022</t>
+  </si>
+  <si>
+    <t>Nama Ayah</t>
+  </si>
+  <si>
+    <t>Bapak Ahmad</t>
+  </si>
+  <si>
+    <t>Nama Ibu</t>
+  </si>
+  <si>
+    <t>Ibu Siti</t>
+  </si>
+  <si>
+    <t>Pekerjaan Ayah</t>
+  </si>
+  <si>
+    <t>Petani</t>
+  </si>
+  <si>
+    <t>Pekerjaan Ibu</t>
+  </si>
+  <si>
+    <t>Ibu Rumah Tangga</t>
+  </si>
+  <si>
+    <t>Nama Wali</t>
+  </si>
+  <si>
+    <t>Paman Budi</t>
+  </si>
+  <si>
+    <t>Pekerjaan Wali</t>
+  </si>
+  <si>
+    <t>Guru</t>
+  </si>
+  <si>
+    <t>NIK Siswa</t>
+  </si>
+  <si>
+    <t>3276010101010001</t>
+  </si>
+  <si>
+    <t>Status Dalam Kel</t>
+  </si>
+  <si>
+    <t>Anak Kandung</t>
+  </si>
+  <si>
+    <t>Anak ke</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Sekolah Asal</t>
+  </si>
+  <si>
+    <t>SDN 1 Jakarta</t>
+  </si>
+  <si>
+    <t>Diterima di Kelas</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Alamat Ortu</t>
+  </si>
+  <si>
+    <t>Jl. Sudirman</t>
+  </si>
+  <si>
+    <t>Telepon Ortu</t>
+  </si>
+  <si>
+    <t>0811223344</t>
+  </si>
+  <si>
+    <t>Alamat Wali</t>
+  </si>
+  <si>
+    <t>Jl. Gajah Mada</t>
+  </si>
+  <si>
+    <t>Telepon Wali</t>
+  </si>
+  <si>
+    <t>0813556677</t>
+  </si>
+  <si>
     <t>Nama Kelas</t>
   </si>
   <si>
     <t>X TKJ A (lihat tabel pengisian)</t>
   </si>
   <si>
-    <t>NIS</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>NISN</t>
-  </si>
-  <si>
-    <t>99887766</t>
-  </si>
-  <si>
-    <t>Nama</t>
-  </si>
-  <si>
-    <t>Ahmad</t>
-  </si>
-  <si>
-    <t>JK</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Tempat Lahir</t>
-  </si>
-  <si>
-    <t>Jakarta</t>
-  </si>
-  <si>
-    <t>Tanggal Lahir</t>
-  </si>
-  <si>
-    <t>09/12/2016</t>
-  </si>
-  <si>
-    <t>Agama</t>
-  </si>
-  <si>
-    <t>Islam</t>
-  </si>
-  <si>
-    <t>Alamat</t>
-  </si>
-  <si>
-    <t>Jl. Merdeka 10</t>
-  </si>
-  <si>
-    <t>Telepon Siswa</t>
-  </si>
-  <si>
-    <t>08123456789</t>
-  </si>
-  <si>
-    <t>Diterima Tanggal</t>
-  </si>
-  <si>
-    <t>01/01/2022</t>
-  </si>
-  <si>
-    <t>Nama Ayah</t>
-  </si>
-  <si>
-    <t>Bapak Ahmad</t>
-  </si>
-  <si>
-    <t>Nama Ibu</t>
-  </si>
-  <si>
-    <t>Ibu Siti</t>
-  </si>
-  <si>
-    <t>Pekerjaan Ayah</t>
-  </si>
-  <si>
-    <t>Petani</t>
-  </si>
-  <si>
-    <t>Pekerjaan Ibu</t>
-  </si>
-  <si>
-    <t>Ibu Rumah Tangga</t>
-  </si>
-  <si>
-    <t>Nama Wali</t>
-  </si>
-  <si>
-    <t>Paman Budi</t>
-  </si>
-  <si>
-    <t>Pekerjaan Wali</t>
-  </si>
-  <si>
-    <t>Guru</t>
-  </si>
-  <si>
-    <t>NIK Siswa</t>
-  </si>
-  <si>
-    <t>3276010101010001</t>
-  </si>
-  <si>
-    <t>Status Dalam Kel</t>
-  </si>
-  <si>
-    <t>Anak Kandung</t>
-  </si>
-  <si>
-    <t>Anak ke</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Sekolah Asal</t>
-  </si>
-  <si>
-    <t>SDN 1 Jakarta</t>
-  </si>
-  <si>
-    <t>Diterima di Kelas</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Alamat Ortu</t>
-  </si>
-  <si>
-    <t>Jl. Sudirman</t>
-  </si>
-  <si>
-    <t>Telepon Ortu</t>
-  </si>
-  <si>
-    <t>0811223344</t>
-  </si>
-  <si>
-    <t>Alamat Wali</t>
-  </si>
-  <si>
-    <t>Jl. Gajah Mada</t>
-  </si>
-  <si>
-    <t>Telepon Wali</t>
-  </si>
-  <si>
-    <t>0813556677</t>
+    <t>Rombel Id</t>
+  </si>
+  <si>
+    <t>5ab5ffc8-b0ef-408c-a803-19bf3826920a</t>
   </si>
   <si>
     <t>Tingkat</t>
@@ -185,31 +191,73 @@
     <t>X TKJ A</t>
   </si>
   <si>
+    <t>64ec7043-6ebf-4598-8b14-a8a227afae47</t>
+  </si>
+  <si>
     <t>X TKJ B</t>
   </si>
   <si>
-    <t>X TSM A</t>
-  </si>
-  <si>
-    <t>X TSM B</t>
-  </si>
-  <si>
-    <t>X MP</t>
+    <t>b437cb5b-6cbf-4d2d-8ee4-55627e1bf15c</t>
+  </si>
+  <si>
+    <t>X TKJ C</t>
+  </si>
+  <si>
+    <t>fee8de73-76d9-4b7b-90ef-0a98bf2ecbfc</t>
   </si>
   <si>
     <t>XI TKJ A</t>
   </si>
   <si>
+    <t>9cffb296-8962-43f6-9185-f94e647209ec</t>
+  </si>
+  <si>
     <t>XI TKJ B</t>
   </si>
   <si>
-    <t>XI TSM A</t>
-  </si>
-  <si>
-    <t>XI TSM B</t>
-  </si>
-  <si>
-    <t>XI MP</t>
+    <t>cadc9ff6-bf37-4a20-af57-f98b146fa81b</t>
+  </si>
+  <si>
+    <t>XI TKJ C</t>
+  </si>
+  <si>
+    <t>e5a39bc7-76b9-4e38-80d0-332402562f7e</t>
+  </si>
+  <si>
+    <t>XII TKJ A</t>
+  </si>
+  <si>
+    <t>8a2afa78-9c87-40dd-b79c-ad1613a08a8d</t>
+  </si>
+  <si>
+    <t>XII TKJ B</t>
+  </si>
+  <si>
+    <t>8d3cd53d-fa5a-410e-b561-fa112eb22fae</t>
+  </si>
+  <si>
+    <t>XII TKJ C</t>
+  </si>
+  <si>
+    <t>5e1bf87f-7a79-445d-8fc0-c755caed52a9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X MP </t>
+  </si>
+  <si>
+    <t>329417d6-a091-4748-8559-314fb00d426f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XI MP </t>
+  </si>
+  <si>
+    <t>140bf77e-6edd-43a6-90d3-85316eb8b60f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XII MP </t>
+  </si>
+  <si>
+    <t>dcb5f1f7-d6f1-4548-a07b-a6c42a5370fa</t>
   </si>
 </sst>
 </file>
@@ -539,11 +587,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col customWidth="true" max="2" min="1" width="11"/>
-    <col customWidth="true" max="6" min="6" width="3"/>
-    <col customWidth="true" max="16" min="15" width="11"/>
-    <col customWidth="true" max="17" min="17" width="13"/>
-    <col customWidth="true" max="20" min="20" width="14"/>
+    <col customWidth="true" max="1" min="1" width="11"/>
+    <col customWidth="true" max="5" min="5" width="3"/>
+    <col customWidth="true" max="15" min="14" width="11"/>
+    <col customWidth="true" max="16" min="16" width="13"/>
+    <col customWidth="true" max="19" min="19" width="14"/>
+    <col customWidth="true" max="28" min="27" width="11"/>
   </cols>
   <sheetData>
     <row r="1" ht="50" customHeight="true">
@@ -628,6 +677,9 @@
       <c r="AA1" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="AB1" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -660,10 +712,10 @@
       <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" t="s">
         <v>23</v>
       </c>
       <c r="M2" t="s">
@@ -711,300 +763,303 @@
       <c r="AA2" t="s">
         <v>53</v>
       </c>
+      <c r="AB2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3">
-      <c r="L3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4">
-      <c r="L4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5">
-      <c r="L5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6">
-      <c r="L6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7">
-      <c r="L7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8">
-      <c r="L8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9">
-      <c r="L9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10">
-      <c r="L10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11">
-      <c r="L11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12">
-      <c r="L12" s="2"/>
+      <c r="K12" s="2"/>
     </row>
     <row r="13">
-      <c r="L13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14">
-      <c r="L14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15">
-      <c r="L15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="16">
-      <c r="L16" s="2"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="17">
-      <c r="L17" s="2"/>
+      <c r="K17" s="2"/>
     </row>
     <row r="18">
-      <c r="L18" s="2"/>
+      <c r="K18" s="2"/>
     </row>
     <row r="19">
-      <c r="L19" s="2"/>
+      <c r="K19" s="2"/>
     </row>
     <row r="20">
-      <c r="L20" s="2"/>
+      <c r="K20" s="2"/>
     </row>
     <row r="21">
-      <c r="L21" s="2"/>
+      <c r="K21" s="2"/>
     </row>
     <row r="22">
-      <c r="L22" s="2"/>
+      <c r="K22" s="2"/>
     </row>
     <row r="23">
-      <c r="L23" s="2"/>
+      <c r="K23" s="2"/>
     </row>
     <row r="24">
-      <c r="L24" s="2"/>
+      <c r="K24" s="2"/>
     </row>
     <row r="25">
-      <c r="L25" s="2"/>
+      <c r="K25" s="2"/>
     </row>
     <row r="26">
-      <c r="L26" s="2"/>
+      <c r="K26" s="2"/>
     </row>
     <row r="27">
-      <c r="L27" s="2"/>
+      <c r="K27" s="2"/>
     </row>
     <row r="28">
-      <c r="L28" s="2"/>
+      <c r="K28" s="2"/>
     </row>
     <row r="29">
-      <c r="L29" s="2"/>
+      <c r="K29" s="2"/>
     </row>
     <row r="30">
-      <c r="L30" s="2"/>
+      <c r="K30" s="2"/>
     </row>
     <row r="31">
-      <c r="L31" s="2"/>
+      <c r="K31" s="2"/>
     </row>
     <row r="32">
-      <c r="L32" s="2"/>
+      <c r="K32" s="2"/>
     </row>
     <row r="33">
-      <c r="L33" s="2"/>
+      <c r="K33" s="2"/>
     </row>
     <row r="34">
-      <c r="L34" s="2"/>
+      <c r="K34" s="2"/>
     </row>
     <row r="35">
-      <c r="L35" s="2"/>
+      <c r="K35" s="2"/>
     </row>
     <row r="36">
-      <c r="L36" s="2"/>
+      <c r="K36" s="2"/>
     </row>
     <row r="37">
-      <c r="L37" s="2"/>
+      <c r="K37" s="2"/>
     </row>
     <row r="38">
-      <c r="L38" s="2"/>
+      <c r="K38" s="2"/>
     </row>
     <row r="39">
-      <c r="L39" s="2"/>
+      <c r="K39" s="2"/>
     </row>
     <row r="40">
-      <c r="L40" s="2"/>
+      <c r="K40" s="2"/>
     </row>
     <row r="41">
-      <c r="L41" s="2"/>
+      <c r="K41" s="2"/>
     </row>
     <row r="42">
-      <c r="L42" s="2"/>
+      <c r="K42" s="2"/>
     </row>
     <row r="43">
-      <c r="L43" s="2"/>
+      <c r="K43" s="2"/>
     </row>
     <row r="44">
-      <c r="L44" s="2"/>
+      <c r="K44" s="2"/>
     </row>
     <row r="45">
-      <c r="L45" s="2"/>
+      <c r="K45" s="2"/>
     </row>
     <row r="46">
-      <c r="L46" s="2"/>
+      <c r="K46" s="2"/>
     </row>
     <row r="47">
-      <c r="L47" s="2"/>
+      <c r="K47" s="2"/>
     </row>
     <row r="48">
-      <c r="L48" s="2"/>
+      <c r="K48" s="2"/>
     </row>
     <row r="49">
-      <c r="L49" s="2"/>
+      <c r="K49" s="2"/>
     </row>
     <row r="50">
-      <c r="L50" s="2"/>
+      <c r="K50" s="2"/>
     </row>
     <row r="51">
-      <c r="L51" s="2"/>
+      <c r="K51" s="2"/>
     </row>
     <row r="52">
-      <c r="L52" s="2"/>
+      <c r="K52" s="2"/>
     </row>
     <row r="53">
-      <c r="L53" s="2"/>
+      <c r="K53" s="2"/>
     </row>
     <row r="54">
-      <c r="L54" s="2"/>
+      <c r="K54" s="2"/>
     </row>
     <row r="55">
-      <c r="L55" s="2"/>
+      <c r="K55" s="2"/>
     </row>
     <row r="56">
-      <c r="L56" s="2"/>
+      <c r="K56" s="2"/>
     </row>
     <row r="57">
-      <c r="L57" s="2"/>
+      <c r="K57" s="2"/>
     </row>
     <row r="58">
-      <c r="L58" s="2"/>
+      <c r="K58" s="2"/>
     </row>
     <row r="59">
-      <c r="L59" s="2"/>
+      <c r="K59" s="2"/>
     </row>
     <row r="60">
-      <c r="L60" s="2"/>
+      <c r="K60" s="2"/>
     </row>
     <row r="61">
-      <c r="L61" s="2"/>
+      <c r="K61" s="2"/>
     </row>
     <row r="62">
-      <c r="L62" s="2"/>
+      <c r="K62" s="2"/>
     </row>
     <row r="63">
-      <c r="L63" s="2"/>
+      <c r="K63" s="2"/>
     </row>
     <row r="64">
-      <c r="L64" s="2"/>
+      <c r="K64" s="2"/>
     </row>
     <row r="65">
-      <c r="L65" s="2"/>
+      <c r="K65" s="2"/>
     </row>
     <row r="66">
-      <c r="L66" s="2"/>
+      <c r="K66" s="2"/>
     </row>
     <row r="67">
-      <c r="L67" s="2"/>
+      <c r="K67" s="2"/>
     </row>
     <row r="68">
-      <c r="L68" s="2"/>
+      <c r="K68" s="2"/>
     </row>
     <row r="69">
-      <c r="L69" s="2"/>
+      <c r="K69" s="2"/>
     </row>
     <row r="70">
-      <c r="L70" s="2"/>
+      <c r="K70" s="2"/>
     </row>
     <row r="71">
-      <c r="L71" s="2"/>
+      <c r="K71" s="2"/>
     </row>
     <row r="72">
-      <c r="L72" s="2"/>
+      <c r="K72" s="2"/>
     </row>
     <row r="73">
-      <c r="L73" s="2"/>
+      <c r="K73" s="2"/>
     </row>
     <row r="74">
-      <c r="L74" s="2"/>
+      <c r="K74" s="2"/>
     </row>
     <row r="75">
-      <c r="L75" s="2"/>
+      <c r="K75" s="2"/>
     </row>
     <row r="76">
-      <c r="L76" s="2"/>
+      <c r="K76" s="2"/>
     </row>
     <row r="77">
-      <c r="L77" s="2"/>
+      <c r="K77" s="2"/>
     </row>
     <row r="78">
-      <c r="L78" s="2"/>
+      <c r="K78" s="2"/>
     </row>
     <row r="79">
-      <c r="L79" s="2"/>
+      <c r="K79" s="2"/>
     </row>
     <row r="80">
-      <c r="L80" s="2"/>
+      <c r="K80" s="2"/>
     </row>
     <row r="81">
-      <c r="L81" s="2"/>
+      <c r="K81" s="2"/>
     </row>
     <row r="82">
-      <c r="L82" s="2"/>
+      <c r="K82" s="2"/>
     </row>
     <row r="83">
-      <c r="L83" s="2"/>
+      <c r="K83" s="2"/>
     </row>
     <row r="84">
-      <c r="L84" s="2"/>
+      <c r="K84" s="2"/>
     </row>
     <row r="85">
-      <c r="L85" s="2"/>
+      <c r="K85" s="2"/>
     </row>
     <row r="86">
-      <c r="L86" s="2"/>
+      <c r="K86" s="2"/>
     </row>
     <row r="87">
-      <c r="L87" s="2"/>
+      <c r="K87" s="2"/>
     </row>
     <row r="88">
-      <c r="L88" s="2"/>
+      <c r="K88" s="2"/>
     </row>
     <row r="89">
-      <c r="L89" s="2"/>
+      <c r="K89" s="2"/>
     </row>
     <row r="90">
-      <c r="L90" s="2"/>
+      <c r="K90" s="2"/>
     </row>
     <row r="91">
-      <c r="L91" s="2"/>
+      <c r="K91" s="2"/>
     </row>
     <row r="92">
-      <c r="L92" s="2"/>
+      <c r="K92" s="2"/>
     </row>
     <row r="93">
-      <c r="L93" s="2"/>
+      <c r="K93" s="2"/>
     </row>
     <row r="94">
-      <c r="L94" s="2"/>
+      <c r="K94" s="2"/>
     </row>
     <row r="95">
-      <c r="L95" s="2"/>
+      <c r="K95" s="2"/>
     </row>
     <row r="96">
-      <c r="L96" s="2"/>
+      <c r="K96" s="2"/>
     </row>
     <row r="97">
-      <c r="L97" s="2"/>
+      <c r="K97" s="2"/>
     </row>
     <row r="98">
-      <c r="L98" s="2"/>
+      <c r="K98" s="2"/>
     </row>
     <row r="99">
-      <c r="L99" s="2"/>
+      <c r="K99" s="2"/>
     </row>
     <row r="100">
-      <c r="L100" s="2"/>
+      <c r="K100" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1024,93 +1079,162 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
+  <cols>
+    <col customWidth="true" hidden="true" max="3" min="3" width="9.140625"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
+      <c r="C3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B4">
         <v>10</v>
       </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B7">
         <v>11</v>
       </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12">
         <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/backend/sekolah/templates/template_siswa_tabel_D4DA6B98FCFD71C58F5A_2024.xlsx
+++ b/backend/sekolah/templates/template_siswa_tabel_D4DA6B98FCFD71C58F5A_2024.xlsx
@@ -191,73 +191,73 @@
     <t>X TKJ A</t>
   </si>
   <si>
-    <t>64ec7043-6ebf-4598-8b14-a8a227afae47</t>
+    <t>87c3a617-dcb1-47fa-b442-31a7d67f4e5d</t>
   </si>
   <si>
     <t>X TKJ B</t>
   </si>
   <si>
-    <t>b437cb5b-6cbf-4d2d-8ee4-55627e1bf15c</t>
+    <t>9e16e6e8-ab1a-4563-9642-a6d93ed9b52c</t>
   </si>
   <si>
     <t>X TKJ C</t>
   </si>
   <si>
-    <t>fee8de73-76d9-4b7b-90ef-0a98bf2ecbfc</t>
+    <t>3866bbcd-5c45-44a3-a046-8949bd004676</t>
   </si>
   <si>
     <t>XI TKJ A</t>
   </si>
   <si>
-    <t>9cffb296-8962-43f6-9185-f94e647209ec</t>
+    <t>d117a911-d331-4e87-b1e3-d6bb0c432b50</t>
   </si>
   <si>
     <t>XI TKJ B</t>
   </si>
   <si>
-    <t>cadc9ff6-bf37-4a20-af57-f98b146fa81b</t>
+    <t>9778d9da-5a36-4043-b4d7-4529b0ae55e6</t>
   </si>
   <si>
     <t>XI TKJ C</t>
   </si>
   <si>
-    <t>e5a39bc7-76b9-4e38-80d0-332402562f7e</t>
+    <t>ab31ca37-708f-4223-b45c-66fd61ad7a67</t>
   </si>
   <si>
     <t>XII TKJ A</t>
   </si>
   <si>
-    <t>8a2afa78-9c87-40dd-b79c-ad1613a08a8d</t>
+    <t>bb2ae1f0-b46e-4de4-a6a5-b10be799ec00</t>
   </si>
   <si>
     <t>XII TKJ B</t>
   </si>
   <si>
-    <t>8d3cd53d-fa5a-410e-b561-fa112eb22fae</t>
+    <t>bc0d39e7-4418-4167-b893-97a6681d0126</t>
   </si>
   <si>
     <t>XII TKJ C</t>
   </si>
   <si>
-    <t>5e1bf87f-7a79-445d-8fc0-c755caed52a9</t>
+    <t>e0036600-d052-4b97-ac03-55ba59c30b9b</t>
   </si>
   <si>
     <t xml:space="preserve">X MP </t>
   </si>
   <si>
-    <t>329417d6-a091-4748-8559-314fb00d426f</t>
+    <t>a163ad40-f3d9-49d4-a5c5-4ea21abc084a</t>
   </si>
   <si>
     <t xml:space="preserve">XI MP </t>
   </si>
   <si>
-    <t>140bf77e-6edd-43a6-90d3-85316eb8b60f</t>
+    <t>53f80165-311b-48af-bffb-e82784608911</t>
   </si>
   <si>
     <t xml:space="preserve">XII MP </t>
   </si>
   <si>
-    <t>dcb5f1f7-d6f1-4548-a07b-a6c42a5370fa</t>
+    <t>7d5c3911-2200-46cd-906a-f54e065e5b70</t>
   </si>
 </sst>
 </file>
@@ -1226,17 +1226,6 @@
         <v>80</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>55</v>
-      </c>
-    </row>
   </sheetData>
 </worksheet>
 </file>